--- a/biology/Médecine/Anthropozoonose/Anthropozoonose.xlsx
+++ b/biology/Médecine/Anthropozoonose/Anthropozoonose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une anthropozoonose (du grec anthropos = homme, zôon = animal, et nosos = maladie) est une maladie ou infection qui se transmet naturellement des animaux vertébrés à l'être humain[1]. C'est une hémizoonose. Ce terme est souvent regroupé avec celui décrivant la modalité réciproque de transmission (zooanthroponose) sous le terme de zoonose, qui désigne toute maladie ou infection qui se transmet naturellement des animaux vertébrés à l'homme et vice-versa.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une anthropozoonose (du grec anthropos = homme, zôon = animal, et nosos = maladie) est une maladie ou infection qui se transmet naturellement des animaux vertébrés à l'être humain. C'est une hémizoonose. Ce terme est souvent regroupé avec celui décrivant la modalité réciproque de transmission (zooanthroponose) sous le terme de zoonose, qui désigne toute maladie ou infection qui se transmet naturellement des animaux vertébrés à l'homme et vice-versa.
 </t>
         </is>
       </c>
